--- a/CODE_PANDEMIC/Document/테스트 플레이 데이터.xlsx
+++ b/CODE_PANDEMIC/Document/테스트 플레이 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE_PANDEMIC\CODE_PANDEMIC\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C173052-915E-43D2-A8A5-77C6D5E3F5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57287D-29B9-4A5E-9774-F070761CF85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5921D525-A760-46D2-9B6C-14B7DAE0FAB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
   <si>
     <t>장소</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -107,6 +107,26 @@
   </si>
   <si>
     <t>진입 불가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라이딩 퍼즐 꼬여서 한번에 못품</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀비를 일부 스킵하면 난이도가 내려감 &amp; 퍼즐 자체 난이도가 쉬운 층임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식을 모르고 풀면 퍼즐 난이도가 상당함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직 보스가 없어서 정확한 기록은 없음</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -259,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,9 +287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -624,7 +641,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -634,64 +651,64 @@
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>2.4305555555555556E-2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>0.1451388888888889</v>
       </c>
       <c r="G3" s="2">
@@ -702,22 +719,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.13333333333333333</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>9.3055555555555558E-2</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>3.5416666666666666E-2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>0.2986111111111111</v>
       </c>
       <c r="G4" s="2">
@@ -728,22 +745,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>0.11805555555555555</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>5.486111111111111E-2</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.21319444444444444</v>
       </c>
       <c r="G5" s="2">
@@ -754,112 +771,234 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
+        <v>3.9583333333333331E-2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>8.611111111111111E-2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.20208333333333334</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6.9444444444444448E-2</v>
+      </c>
+      <c r="C12" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.15694444444444444</v>
+      </c>
+      <c r="E12" s="3">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.1986111111111111</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.11944444444444445</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2.2916666666666665E-2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.12430555555555556</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.20902777777777778</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -872,8 +1011,9 @@
       <c r="H16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A9:H9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE_PANDEMIC/Document/테스트 플레이 데이터.xlsx
+++ b/CODE_PANDEMIC/Document/테스트 플레이 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE_PANDEMIC\CODE_PANDEMIC\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E57287D-29B9-4A5E-9774-F070761CF85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDA439-F30D-42EE-BD06-DC404EC7F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5921D525-A760-46D2-9B6C-14B7DAE0FAB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
   <si>
     <t>장소</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -127,6 +127,18 @@
   </si>
   <si>
     <t>아직 보스가 없어서 정확한 기록은 없음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜토리얼 읽는 시간 1분 정도 추가한 계산</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨테이너에서 소환되는 좀비가 한방에 죽음</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -196,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -264,6 +276,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -279,7 +343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +363,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -638,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD25B8FE-1C8D-49CE-AD72-FBAB527A7E70}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -890,7 +969,7 @@
         <v>0.20208333333333334</v>
       </c>
       <c r="G11" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>19</v>
@@ -1000,7 +1079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1010,10 +1089,176 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
+    <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2.013888888888889E-2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.16180555555555556</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="3">
+        <v>2.2916666666666665E-2</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1.4583333333333334E-2</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.17708333333333334</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.13055555555555556</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>3.4027777777777775E-2</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="G21" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CODE_PANDEMIC/Document/테스트 플레이 데이터.xlsx
+++ b/CODE_PANDEMIC/Document/테스트 플레이 데이터.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE_PANDEMIC\CODE_PANDEMIC\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DDA439-F30D-42EE-BD06-DC404EC7F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F44DE2-60A6-4415-85E4-608169791268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5921D525-A760-46D2-9B6C-14B7DAE0FAB8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="28">
   <si>
     <t>장소</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>컨테이너에서 소환되는 좀비가 한방에 죽음</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 순찰 &amp; 좀비 몰살 시간</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -328,6 +336,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -343,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,22 +396,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -717,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD25B8FE-1C8D-49CE-AD72-FBAB527A7E70}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,16 +774,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -912,16 +952,16 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1090,28 +1130,28 @@
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1253,12 +1293,116 @@
         <v>25</v>
       </c>
     </row>
+    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A9:H9"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
